--- a/projet/history.xlsx
+++ b/projet/history.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Nom</t>
   </si>
@@ -97,12 +97,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -469,13 +470,27 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n" s="5">
+      <c r="B6" s="5" t="n">
         <v>44218.38466516204</v>
       </c>
       <c r="C6" t="n">
         <v>15.0</v>
       </c>
       <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n" s="6">
+        <v>44220.76865583333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
